--- a/inst/extdata/worked-examples.xlsx
+++ b/inst/extdata/worked-examples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="pivot-example" sheetId="1" r:id="rId1"/>
@@ -2235,15 +2235,15 @@
       </c>
       <c r="D3" s="28">
         <f t="shared" ref="D3:F6" ca="1" si="0">RANDBETWEEN(0,9)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -2253,15 +2253,15 @@
       </c>
       <c r="D4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -2271,15 +2271,15 @@
       </c>
       <c r="D5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -2289,15 +2289,15 @@
       </c>
       <c r="D6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -2322,15 +2322,15 @@
       </c>
       <c r="D8" s="28">
         <f t="shared" ref="D8:F11" ca="1" si="1">RANDBETWEEN(0,9)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -2340,15 +2340,15 @@
       </c>
       <c r="D9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -2358,15 +2358,15 @@
       </c>
       <c r="D10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -2376,15 +2376,15 @@
       </c>
       <c r="D11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -2409,15 +2409,15 @@
       </c>
       <c r="D13" s="28">
         <f t="shared" ref="D13:F16" ca="1" si="2">RANDBETWEEN(0,9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -2427,15 +2427,15 @@
       </c>
       <c r="D14" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -2445,15 +2445,15 @@
       </c>
       <c r="D15" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="D16" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="28">
         <f t="shared" ca="1" si="2"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="D18" s="28">
         <f t="shared" ref="D18:F21" ca="1" si="3">RANDBETWEEN(0,9)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E18" s="28">
         <f t="shared" ca="1" si="3"/>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="D19" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E19" s="28">
         <f t="shared" ca="1" si="3"/>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -2532,15 +2532,15 @@
       </c>
       <c r="D20" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E20" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -2550,15 +2550,15 @@
       </c>
       <c r="D21" s="24">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" s="24">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2605,11 +2605,11 @@
       </c>
       <c r="D4" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -2622,11 +2622,11 @@
       </c>
       <c r="D5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -2635,15 +2635,15 @@
       </c>
       <c r="C6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -2652,15 +2652,15 @@
       </c>
       <c r="C7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D7" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -2689,15 +2689,15 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" ref="C10:E13" ca="1" si="1">RANDBETWEEN(0,9)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" s="23">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -2727,11 +2727,11 @@
       </c>
       <c r="D12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -2740,15 +2740,15 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -2777,15 +2777,15 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ref="C16:E19" ca="1" si="2">RANDBETWEEN(0,9)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="23">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -2794,15 +2794,15 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -2811,11 +2811,11 @@
       </c>
       <c r="C18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D18" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -2828,15 +2828,15 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="24">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -2865,15 +2865,15 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:E25" ca="1" si="3">RANDBETWEEN(0,9)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -2882,15 +2882,15 @@
       </c>
       <c r="C23" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -2899,15 +2899,15 @@
       </c>
       <c r="C24" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -2916,15 +2916,15 @@
       </c>
       <c r="C25" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D25" s="24">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4002,8 +4002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
